--- a/Project_Management/Sprint 2/Burndown chart.xlsx
+++ b/Project_Management/Sprint 2/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepos\ES\SE2324_62475_61891\Project_Management\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F4C5D8-F2D9-4022-82B6-B7C178C91F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4218D6A9-A9D4-46B4-B96C-27AB9314A086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2155,7 +2155,7 @@
   <dimension ref="B1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
